--- a/data/output/tpa_autot0.xlsx
+++ b/data/output/tpa_autot0.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\autot0\data\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEA85CB-995C-4411-9593-CD5C64F65B3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14070" yWindow="12540" windowWidth="28785" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="38">
   <si>
     <t>DataDate</t>
   </si>
@@ -59,6 +53,9 @@
   </si>
   <si>
     <t>20210222</t>
+  </si>
+  <si>
+    <t>20210224</t>
   </si>
   <si>
     <t>11003_c_dh_2137</t>
@@ -136,12 +133,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -149,15 +146,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -203,23 +193,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -261,7 +243,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,27 +275,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,24 +309,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -538,25 +484,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -594,12 +529,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
         <v>10013</v>
@@ -614,7 +549,7 @@
         <v>0.54</v>
       </c>
       <c r="G2">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="H2">
         <v>0.16</v>
@@ -632,12 +567,12 @@
         <v>0.4511</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>4609</v>
@@ -667,15 +602,15 @@
         <v>0.1799</v>
       </c>
       <c r="L3">
-        <v>0.40010000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -708,12 +643,12 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -746,12 +681,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -784,12 +719,12 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>1444</v>
@@ -807,7 +742,7 @@
         <v>0.25</v>
       </c>
       <c r="H7">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="I7">
         <v>0.3</v>
@@ -819,15 +754,15 @@
         <v>0.221</v>
       </c>
       <c r="L7">
-        <v>0.42970000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
         <v>3869</v>
@@ -854,18 +789,18 @@
         <v>0.02</v>
       </c>
       <c r="K8">
-        <v>0.18940000000000001</v>
+        <v>0.1894</v>
       </c>
       <c r="L8">
-        <v>0.41170000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -898,12 +833,12 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>2707</v>
@@ -930,18 +865,18 @@
         <v>0.03</v>
       </c>
       <c r="K10">
-        <v>0.19819999999999999</v>
+        <v>0.1982</v>
       </c>
       <c r="L10">
-        <v>0.47660000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4766</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>2052</v>
@@ -950,13 +885,13 @@
         <v>273</v>
       </c>
       <c r="E11">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F11">
         <v>0.49</v>
       </c>
       <c r="G11">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="H11">
         <v>0.26</v>
@@ -968,18 +903,18 @@
         <v>0.02</v>
       </c>
       <c r="K11">
-        <v>0.19719999999999999</v>
+        <v>0.1972</v>
       </c>
       <c r="L11">
         <v>0.4637</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>8780</v>
@@ -1012,12 +947,12 @@
         <v>0.4194</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1050,12 +985,12 @@
         <v>999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14">
         <v>1662</v>
@@ -1085,15 +1020,15 @@
         <v>0.2195</v>
       </c>
       <c r="L14">
-        <v>0.50609999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.5061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>2105</v>
@@ -1123,15 +1058,15 @@
         <v>0.1918</v>
       </c>
       <c r="L15">
-        <v>0.47070000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4707</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16">
         <v>7380</v>
@@ -1149,7 +1084,7 @@
         <v>0.13</v>
       </c>
       <c r="H16">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I16">
         <v>0.38</v>
@@ -1161,15 +1096,15 @@
         <v>0.1661</v>
       </c>
       <c r="L16">
-        <v>0.37569999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.3757</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17">
         <v>4151</v>
@@ -1181,7 +1116,7 @@
         <v>0.15</v>
       </c>
       <c r="F17">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G17">
         <v>0.13</v>
@@ -1196,18 +1131,18 @@
         <v>0.05</v>
       </c>
       <c r="K17">
-        <v>0.19489999999999999</v>
+        <v>0.1949</v>
       </c>
       <c r="L17">
-        <v>0.45939999999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>9284</v>
@@ -1234,18 +1169,18 @@
         <v>0.19</v>
       </c>
       <c r="K18">
-        <v>0.18540000000000001</v>
+        <v>0.1854</v>
       </c>
       <c r="L18">
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" t="s">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19">
         <v>22126</v>
@@ -1272,18 +1207,18 @@
         <v>0.04</v>
       </c>
       <c r="K19">
-        <v>0.14419999999999999</v>
+        <v>0.1442</v>
       </c>
       <c r="L19">
-        <v>0.30909999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.3091</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>2496</v>
@@ -1295,7 +1230,7 @@
         <v>0.12</v>
       </c>
       <c r="F20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="G20">
         <v>0.11</v>
@@ -1313,15 +1248,15 @@
         <v>0.2147</v>
       </c>
       <c r="L20">
-        <v>0.46229999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4623</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21">
         <v>736</v>
@@ -1348,18 +1283,18 @@
         <v>999999999</v>
       </c>
       <c r="K21">
-        <v>0.23019999999999999</v>
+        <v>0.2302</v>
       </c>
       <c r="L21">
         <v>0.499</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22">
         <v>6718</v>
@@ -1368,7 +1303,7 @@
         <v>240</v>
       </c>
       <c r="E22">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F22">
         <v>0.2</v>
@@ -1386,18 +1321,18 @@
         <v>0.06</v>
       </c>
       <c r="K22">
-        <v>0.23699999999999999</v>
+        <v>0.237</v>
       </c>
       <c r="L22">
-        <v>0.54830000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.5483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>13921</v>
@@ -1424,18 +1359,18 @@
         <v>0.03</v>
       </c>
       <c r="K23">
-        <v>0.21879999999999999</v>
+        <v>0.2188</v>
       </c>
       <c r="L23">
-        <v>0.45250000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24">
         <v>998</v>
@@ -1465,15 +1400,15 @@
         <v>0.2203</v>
       </c>
       <c r="L24">
-        <v>0.47239999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>0.4724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C25">
         <v>3687</v>
@@ -1500,15 +1435,887 @@
         <v>0.3</v>
       </c>
       <c r="K25">
-        <v>0.20830000000000001</v>
+        <v>0.2083</v>
       </c>
       <c r="L25">
         <v>0.437</v>
       </c>
     </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>7026</v>
+      </c>
+      <c r="D26">
+        <v>944</v>
+      </c>
+      <c r="E26">
+        <v>0.23</v>
+      </c>
+      <c r="F26">
+        <v>0.18</v>
+      </c>
+      <c r="G26">
+        <v>0.13</v>
+      </c>
+      <c r="H26">
+        <v>0.13</v>
+      </c>
+      <c r="I26">
+        <v>0.39</v>
+      </c>
+      <c r="J26">
+        <v>0.08</v>
+      </c>
+      <c r="K26">
+        <v>0.1984</v>
+      </c>
+      <c r="L26">
+        <v>0.4474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>4812</v>
+      </c>
+      <c r="D27">
+        <v>1206</v>
+      </c>
+      <c r="E27">
+        <v>0.18</v>
+      </c>
+      <c r="F27">
+        <v>0.17</v>
+      </c>
+      <c r="G27">
+        <v>0.17</v>
+      </c>
+      <c r="H27">
+        <v>0.14</v>
+      </c>
+      <c r="I27">
+        <v>0.42</v>
+      </c>
+      <c r="J27">
+        <v>0.03</v>
+      </c>
+      <c r="K27">
+        <v>0.1906</v>
+      </c>
+      <c r="L27">
+        <v>0.4024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <v>9</v>
+      </c>
+      <c r="G28">
+        <v>999999999</v>
+      </c>
+      <c r="H28">
+        <v>999999999</v>
+      </c>
+      <c r="I28">
+        <v>999999999</v>
+      </c>
+      <c r="J28">
+        <v>999999999</v>
+      </c>
+      <c r="K28">
+        <v>999999999</v>
+      </c>
+      <c r="L28">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>999999999</v>
+      </c>
+      <c r="H29">
+        <v>999999999</v>
+      </c>
+      <c r="I29">
+        <v>999999999</v>
+      </c>
+      <c r="J29">
+        <v>999999999</v>
+      </c>
+      <c r="K29">
+        <v>999999999</v>
+      </c>
+      <c r="L29">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>9</v>
+      </c>
+      <c r="F30">
+        <v>9</v>
+      </c>
+      <c r="G30">
+        <v>999999999</v>
+      </c>
+      <c r="H30">
+        <v>999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>999999999</v>
+      </c>
+      <c r="L30">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>1519</v>
+      </c>
+      <c r="D31">
+        <v>846</v>
+      </c>
+      <c r="E31">
+        <v>0.22</v>
+      </c>
+      <c r="F31">
+        <v>0.19</v>
+      </c>
+      <c r="G31">
+        <v>0.27</v>
+      </c>
+      <c r="H31">
+        <v>0.25</v>
+      </c>
+      <c r="I31">
+        <v>0.3</v>
+      </c>
+      <c r="J31">
+        <v>0.28</v>
+      </c>
+      <c r="K31">
+        <v>0.1928</v>
+      </c>
+      <c r="L31">
+        <v>0.3992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>4001</v>
+      </c>
+      <c r="D32">
+        <v>1208</v>
+      </c>
+      <c r="E32">
+        <v>0.19</v>
+      </c>
+      <c r="F32">
+        <v>0.15</v>
+      </c>
+      <c r="G32">
+        <v>0.18</v>
+      </c>
+      <c r="H32">
+        <v>0.14</v>
+      </c>
+      <c r="I32">
+        <v>0.45</v>
+      </c>
+      <c r="J32">
+        <v>0.01</v>
+      </c>
+      <c r="K32">
+        <v>0.1798</v>
+      </c>
+      <c r="L32">
+        <v>0.3786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>9</v>
+      </c>
+      <c r="F33">
+        <v>9</v>
+      </c>
+      <c r="G33">
+        <v>999999999</v>
+      </c>
+      <c r="H33">
+        <v>999999999</v>
+      </c>
+      <c r="I33">
+        <v>999999999</v>
+      </c>
+      <c r="J33">
+        <v>999999999</v>
+      </c>
+      <c r="K33">
+        <v>999999999</v>
+      </c>
+      <c r="L33">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>2777</v>
+      </c>
+      <c r="D34">
+        <v>358</v>
+      </c>
+      <c r="E34">
+        <v>0.23</v>
+      </c>
+      <c r="F34">
+        <v>0.15</v>
+      </c>
+      <c r="G34">
+        <v>0.14</v>
+      </c>
+      <c r="H34">
+        <v>0.13</v>
+      </c>
+      <c r="I34">
+        <v>0.54</v>
+      </c>
+      <c r="J34">
+        <v>0.02</v>
+      </c>
+      <c r="K34">
+        <v>0.1805</v>
+      </c>
+      <c r="L34">
+        <v>0.404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>2118</v>
+      </c>
+      <c r="D35">
+        <v>362</v>
+      </c>
+      <c r="E35">
+        <v>0.2</v>
+      </c>
+      <c r="F35">
+        <v>0.18</v>
+      </c>
+      <c r="G35">
+        <v>0.14</v>
+      </c>
+      <c r="H35">
+        <v>0.17</v>
+      </c>
+      <c r="I35">
+        <v>0.54</v>
+      </c>
+      <c r="J35">
+        <v>0.01</v>
+      </c>
+      <c r="K35">
+        <v>0.1782</v>
+      </c>
+      <c r="L35">
+        <v>0.4097</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <v>493</v>
+      </c>
+      <c r="D36">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>0.13</v>
+      </c>
+      <c r="F36">
+        <v>0.13</v>
+      </c>
+      <c r="G36">
+        <v>0.05</v>
+      </c>
+      <c r="H36">
+        <v>0.06</v>
+      </c>
+      <c r="I36">
+        <v>0.03</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0.4173</v>
+      </c>
+      <c r="L36">
+        <v>0.9982</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37">
+        <v>1706</v>
+      </c>
+      <c r="D37">
+        <v>441</v>
+      </c>
+      <c r="E37">
+        <v>0.2</v>
+      </c>
+      <c r="F37">
+        <v>0.1</v>
+      </c>
+      <c r="G37">
+        <v>0.17</v>
+      </c>
+      <c r="H37">
+        <v>0.11</v>
+      </c>
+      <c r="I37">
+        <v>0.42</v>
+      </c>
+      <c r="J37">
+        <v>0.26</v>
+      </c>
+      <c r="K37">
+        <v>0.184</v>
+      </c>
+      <c r="L37">
+        <v>0.4122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38">
+        <v>2154</v>
+      </c>
+      <c r="D38">
+        <v>461</v>
+      </c>
+      <c r="E38">
+        <v>0.17</v>
+      </c>
+      <c r="F38">
+        <v>0.13</v>
+      </c>
+      <c r="G38">
+        <v>0.13</v>
+      </c>
+      <c r="H38">
+        <v>0.15</v>
+      </c>
+      <c r="I38">
+        <v>0.48</v>
+      </c>
+      <c r="J38">
+        <v>0.12</v>
+      </c>
+      <c r="K38">
+        <v>0.1757</v>
+      </c>
+      <c r="L38">
+        <v>0.3989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>7718</v>
+      </c>
+      <c r="D39">
+        <v>1368</v>
+      </c>
+      <c r="E39">
+        <v>0.16</v>
+      </c>
+      <c r="F39">
+        <v>0.15</v>
+      </c>
+      <c r="G39">
+        <v>0.13</v>
+      </c>
+      <c r="H39">
+        <v>0.11</v>
+      </c>
+      <c r="I39">
+        <v>0.46</v>
+      </c>
+      <c r="J39">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="K39">
+        <v>0.2095</v>
+      </c>
+      <c r="L39">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>4261</v>
+      </c>
+      <c r="D40">
+        <v>454</v>
+      </c>
+      <c r="E40">
+        <v>0.17</v>
+      </c>
+      <c r="F40">
+        <v>0.1</v>
+      </c>
+      <c r="G40">
+        <v>0.1</v>
+      </c>
+      <c r="H40">
+        <v>0.06</v>
+      </c>
+      <c r="I40">
+        <v>0.58</v>
+      </c>
+      <c r="J40">
+        <v>0.03</v>
+      </c>
+      <c r="K40">
+        <v>0.1645</v>
+      </c>
+      <c r="L40">
+        <v>0.3949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>9548</v>
+      </c>
+      <c r="D41">
+        <v>1306</v>
+      </c>
+      <c r="E41">
+        <v>0.16</v>
+      </c>
+      <c r="F41">
+        <v>0.17</v>
+      </c>
+      <c r="G41">
+        <v>0.14</v>
+      </c>
+      <c r="H41">
+        <v>0.14</v>
+      </c>
+      <c r="I41">
+        <v>0.45</v>
+      </c>
+      <c r="J41">
+        <v>0.09</v>
+      </c>
+      <c r="K41">
+        <v>0.2102</v>
+      </c>
+      <c r="L41">
+        <v>0.4429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>24101</v>
+      </c>
+      <c r="D42">
+        <v>1700</v>
+      </c>
+      <c r="E42">
+        <v>0.16</v>
+      </c>
+      <c r="F42">
+        <v>0.19</v>
+      </c>
+      <c r="G42">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.08</v>
+      </c>
+      <c r="I42">
+        <v>0.41</v>
+      </c>
+      <c r="J42">
+        <v>0.04</v>
+      </c>
+      <c r="K42">
+        <v>0.1794</v>
+      </c>
+      <c r="L42">
+        <v>0.3711</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>2579</v>
+      </c>
+      <c r="D43">
+        <v>438</v>
+      </c>
+      <c r="E43">
+        <v>0.17</v>
+      </c>
+      <c r="F43">
+        <v>0.14</v>
+      </c>
+      <c r="G43">
+        <v>0.12</v>
+      </c>
+      <c r="H43">
+        <v>0.15</v>
+      </c>
+      <c r="I43">
+        <v>0.47</v>
+      </c>
+      <c r="J43">
+        <v>0.06</v>
+      </c>
+      <c r="K43">
+        <v>0.1706</v>
+      </c>
+      <c r="L43">
+        <v>0.3923</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44">
+        <v>801</v>
+      </c>
+      <c r="D44">
+        <v>278</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>999999999</v>
+      </c>
+      <c r="J44">
+        <v>999999999</v>
+      </c>
+      <c r="K44">
+        <v>0.271</v>
+      </c>
+      <c r="L44">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45">
+        <v>6873</v>
+      </c>
+      <c r="D45">
+        <v>472</v>
+      </c>
+      <c r="E45">
+        <v>0.16</v>
+      </c>
+      <c r="F45">
+        <v>0.17</v>
+      </c>
+      <c r="G45">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.11</v>
+      </c>
+      <c r="I45">
+        <v>0.52</v>
+      </c>
+      <c r="J45">
+        <v>0.02</v>
+      </c>
+      <c r="K45">
+        <v>0.1734</v>
+      </c>
+      <c r="L45">
+        <v>0.3924</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46">
+        <v>13988</v>
+      </c>
+      <c r="D46">
+        <v>1404</v>
+      </c>
+      <c r="E46">
+        <v>0.18</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46">
+        <v>0.11</v>
+      </c>
+      <c r="H46">
+        <v>0.12</v>
+      </c>
+      <c r="I46">
+        <v>0.29</v>
+      </c>
+      <c r="J46">
+        <v>0.16</v>
+      </c>
+      <c r="K46">
+        <v>0.1761</v>
+      </c>
+      <c r="L46">
+        <v>0.4038</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47">
+        <v>6768</v>
+      </c>
+      <c r="D47">
+        <v>173</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>999999999</v>
+      </c>
+      <c r="J47">
+        <v>999999999</v>
+      </c>
+      <c r="K47">
+        <v>0.2104</v>
+      </c>
+      <c r="L47">
+        <v>0.6109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>9</v>
+      </c>
+      <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>999999999</v>
+      </c>
+      <c r="H48">
+        <v>999999999</v>
+      </c>
+      <c r="I48">
+        <v>0.36</v>
+      </c>
+      <c r="J48">
+        <v>0.03</v>
+      </c>
+      <c r="K48">
+        <v>999999999</v>
+      </c>
+      <c r="L48">
+        <v>999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>